--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:50:55+00:00</t>
+    <t>2022-11-29T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,66 +322,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -400,50 +405,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-AdmissionTypes</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-AdmissionTypes</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-AdmissionTypes</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-AdmissionTypes</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T11:54:57+00:00</t>
+    <t>2023-01-11T13:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
+++ b/branches/Richard/ValueSet-vs-AdmissionTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
